--- a/test_type_understanding/01_カフェWebページ制作依頼.xlsx
+++ b/test_type_understanding/01_カフェWebページ制作依頼.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/omachi/projects/DIVIC/課題用ドキュメント/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E758BA7-8768-C24F-8362-2D6D1AC06F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{BA9DE6A3-EA6A-3748-97D3-E6F071C421F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="14800" windowHeight="17500" xr2:uid="{BACA6796-29CB-4F4D-A3CA-DDA730C0A782}"/>
+    <workbookView xWindow="35000" yWindow="500" windowWidth="19260" windowHeight="21100" xr2:uid="{BACA6796-29CB-4F4D-A3CA-DDA730C0A782}"/>
   </bookViews>
   <sheets>
     <sheet name="要求事項" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
   <si>
     <t>フードメニュー</t>
     <phoneticPr fontId="1"/>
@@ -291,6 +292,76 @@
   </si>
   <si>
     <t>エスプレッソ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>当店で使用しているGoogleカレンダーの営業日カレンダーがWebページで見れる形にするだけで問題ございません。</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">トウテン </t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">シヨウシテイル </t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t xml:space="preserve">エイギョウビ </t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t xml:space="preserve">ミレル </t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t xml:space="preserve">カタチ </t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t xml:space="preserve">モンダイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>当月の営業日カレンダーだけが表示されている形にしてください。</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">トウゲツブン </t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t xml:space="preserve">エイギョウビ </t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t xml:space="preserve">ヒョウジ </t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t xml:space="preserve">カタチ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これまでのお問合せは電話が主で、今後もお問合せに対してはお電話で対応したく考えておりますので</t>
+    <rPh sb="10" eb="12">
+      <t xml:space="preserve">デンワ </t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t xml:space="preserve">オモ </t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t xml:space="preserve">コンゴ タイオウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お名前、お電話番号とお問合せ事項は必ず送って頂きたいです。</t>
+    <rPh sb="7" eb="9">
+      <t xml:space="preserve">バンゴウ </t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t xml:space="preserve">ジコウ </t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t xml:space="preserve">カナラズ </t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t xml:space="preserve">オクッテ </t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t xml:space="preserve">イタダキタイデス </t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -703,7 +774,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7FD7A53-A01D-3644-AE76-77115B9695AD}">
-  <dimension ref="B2:C44"/>
+  <dimension ref="B2:C47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -871,33 +942,53 @@
         <v>25</v>
       </c>
     </row>
+    <row r="34" spans="2:2">
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+    </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="2" t="s">
+      <c r="B35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="2:2">
-      <c r="B36" t="s">
+    <row r="38" spans="2:2">
+      <c r="B38" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="2:2">
-      <c r="B37" t="s">
+    <row r="39" spans="2:2">
+      <c r="B39" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="2:2">
-      <c r="B44" s="1"/>
+    <row r="47" spans="2:2">
+      <c r="B47" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
